--- a/forwardprimer-v3_36.xlsx
+++ b/forwardprimer-v3_36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_36" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3361-ATGTCAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCAACCTTCGTCGGCAGCGTC</t>
+    <t>F3361-ACTTGAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3362-AGTTGCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCTGAATCGTCGGCAGCGTC</t>
+    <t>F3362-GCTGCTTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGCTTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3363-AACTAGGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTAGGTCGTCGTCGGCAGCGTC</t>
+    <t>F3363-TCGTTGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3364-ACGTTGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTTGCTGATCGTCGGCAGCGTC</t>
+    <t>F3364-ACACTGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3365-CATGGATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGATCACTCGTCGGCAGCGTC</t>
+    <t>F3365-TGTCTCTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3366-GTGAGTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTGTGTTCGTCGGCAGCGTC</t>
+    <t>F3366-TGACTTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3367-AACTAGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTAGCATCTCGTCGGCAGCGTC</t>
+    <t>F3367-TTGACCTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACCTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3368-TGGAGCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGCTACTTCGTCGGCAGCGTC</t>
+    <t>F3368-TCTACCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACCAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3369-CACTCATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTCATGACTCGTCGGCAGCGTC</t>
+    <t>F3369-CAAGAGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3370-AAGTCACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCACATCTCGTCGGCAGCGTC</t>
+    <t>F3370-GAACAACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3371-TAGTCCACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCACTATCGTCGGCAGCGTC</t>
+    <t>F3371-AAGCTTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3372-CTTGAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGCTTCTCGTCGGCAGCGTC</t>
+    <t>F3372-TGACAGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3373-ACACTCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTCAAGGTCGTCGGCAGCGTC</t>
+    <t>F3373-TAGTCAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3374-CCTGAGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAGTGTTTCGTCGGCAGCGTC</t>
+    <t>F3374-GAGTACACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3375-TGTTGGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGGACCTTCGTCGGCAGCGTC</t>
+    <t>F3375-TCTGTTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTTCGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3376-ATCTCCTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCCTGAGTCGTCGGCAGCGTC</t>
+    <t>F3376-CCTTCTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3377-AACAAGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGACCATCGTCGGCAGCGTC</t>
+    <t>F3377-GACACTTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACTTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3378-GTGTACATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACATCCTCGTCGGCAGCGTC</t>
+    <t>F3378-ATCTCGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3379-CTGGTAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTAGGTATCGTCGGCAGCGTC</t>
+    <t>F3379-TCTGGTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGTGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3380-TTGGTCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCTACCTCGTCGGCAGCGTC</t>
+    <t>F3380-GAACGTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3381-GTGTAGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGAACGTCGTCGGCAGCGTC</t>
+    <t>F3381-TTGTTGCTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGCTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3382-AACTCCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCTAGGTCGTCGGCAGCGTC</t>
+    <t>F3382-ACTGCTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3383-GTCTACGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACGACATCGTCGGCAGCGTC</t>
+    <t>F3383-ACAACGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3384-AACCTGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGAGAATCGTCGGCAGCGTC</t>
+    <t>F3384-ACAGACACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGACACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3385-CTACAACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAACCTGTCGTCGGCAGCGTC</t>
+    <t>F3385-TGTCTGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3386-GCTGATCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGATCACTTCGTCGGCAGCGTC</t>
+    <t>F3386-TCACTCGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3387-ACTGGAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGAAGCATCGTCGGCAGCGTC</t>
+    <t>F3387-AGATGGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3388-AACACACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACACAAGTCGTCGGCAGCGTC</t>
+    <t>F3388-ACCAACAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAACAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3389-ATGGAGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGAGACTGTCGTCGGCAGCGTC</t>
+    <t>F3389-AGCTGTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3390-ACAACCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACCACGTTCGTCGGCAGCGTC</t>
+    <t>F3390-GAGTTCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3391-CATCAGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGAACATCGTCGGCAGCGTC</t>
+    <t>F3391-AGGTGAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3392-TTCCACTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACTGTGTCGTCGGCAGCGTC</t>
+    <t>F3392-TCATCTGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCTGGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3393-TTCGTCTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTCTGGATCGTCGGCAGCGTC</t>
+    <t>F3393-TCATGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3394-ACAGTAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTAGCAATCGTCGGCAGCGTC</t>
+    <t>F3394-CTGAGCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGCATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3395-TGGAACTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACTTCCTCGTCGGCAGCGTC</t>
+    <t>F3395-TGAACATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3396-TCCATCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCCTTCTCGTCGGCAGCGTC</t>
+    <t>F3396-TTCCTCTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3397-AGAGAAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAAGTGCTCGTCGGCAGCGTC</t>
+    <t>F3397-AGAAGTCCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTCCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3398-AGAGTGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGAGTATCGTCGGCAGCGTC</t>
+    <t>F3398-AAGACTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3399-CATCAAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAAGCACTCGTCGGCAGCGTC</t>
+    <t>F3399-CTCAGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3400-AGTCAGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGGATCTCGTCGGCAGCGTC</t>
+    <t>F3400-AGATGCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGCATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3401-TACTGCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGCTCTATCGTCGGCAGCGTC</t>
+    <t>F3401-AACCAACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3402-CGTGATGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATGTCTTCGTCGGCAGCGTC</t>
+    <t>F3402-TAGGACTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3403-TGCATCCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCCTCTTCGTCGGCAGCGTC</t>
+    <t>F3403-TTCGACAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3404-AAGGTTCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTCAGCTCGTCGGCAGCGTC</t>
+    <t>F3404-ACCATCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATCTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3405-CTCAAGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGGAACTCGTCGGCAGCGTC</t>
+    <t>F3405-AGACTGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3406-ACTCCTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTTGCTTCGTCGGCAGCGTC</t>
+    <t>F3406-CTACTCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3407-AACTTGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTTGTCACTCGTCGGCAGCGTC</t>
+    <t>F3407-AGACGAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGAGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3408-AGGTCAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAGAGTTCGTCGGCAGCGTC</t>
+    <t>F3408-TGACAACCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3409-TCGAGATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGATCTGTCGTCGGCAGCGTC</t>
+    <t>F3409-GAAGTGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3410-GTGATGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGAGTATCGTCGGCAGCGTC</t>
+    <t>F3410-AGCAAGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAAGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3411-AACTGCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGCTTCATCGTCGGCAGCGTC</t>
+    <t>F3411-CATCCTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3412-TCGATCTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCTGCTTCGTCGGCAGCGTC</t>
+    <t>F3412-CCAGTTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3413-AACTCAACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAACTGTCGTCGGCAGCGTC</t>
+    <t>F3413-TTCCTTCGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTTCGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3414-TTGGTAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTAGACTTCGTCGGCAGCGTC</t>
+    <t>F3414-TAGTGAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3415-GTTGACATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACATGATCGTCGGCAGCGTC</t>
+    <t>F3415-GAGGTTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3416-TACACCACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACCACCTTCGTCGGCAGCGTC</t>
+    <t>F3416-GTCCTAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCTAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3417-AAGGTGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTGATGATCGTCGGCAGCGTC</t>
+    <t>F3417-GGAACTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACTAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3418-TTCACGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACGAAGATCGTCGGCAGCGTC</t>
+    <t>F3418-AGAAGAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGAGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3419-GTGGTAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTAGTGATCGTCGGCAGCGTC</t>
+    <t>F3419-GAAGTACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTACCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3420-TAGACTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTTGCATCGTCGGCAGCGTC</t>
+    <t>F3420-CTCGTGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3421-GATCCAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCAGTAGTCGTCGGCAGCGTC</t>
+    <t>F3421-GAGTTCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3422-ATGCTGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGAACCTCGTCGGCAGCGTC</t>
+    <t>F3422-TCTCTCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3423-ACTACCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACCATGCTCGTCGGCAGCGTC</t>
+    <t>F3423-AAGACCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3424-ATCGAACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAACACGTCGTCGGCAGCGTC</t>
+    <t>F3424-AAGACACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3425-AACGTGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGTACCTCGTCGGCAGCGTC</t>
+    <t>F3425-TCCAACATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3426-TCTGCACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCACAGTTCGTCGGCAGCGTC</t>
+    <t>F3426-GAACAGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3427-CAGCTACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTACAACTCGTCGGCAGCGTC</t>
+    <t>F3427-TACTCGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3428-ACGTCAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCAAGTGTCGTCGGCAGCGTC</t>
+    <t>F3428-CAGAGTAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3429-CGTACAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTACAACCTTCGTCGGCAGCGTC</t>
+    <t>F3429-GCAAGCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGCAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F3430-TCTCAACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAACAGGTCGTCGGCAGCGTC</t>
+    <t>F3430-ACTGTCGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F3431-AGATGCTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGCTGCTTCGTCGGCAGCGTC</t>
+    <t>F3431-CGATCTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCTCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F3432-TCGTAGCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGCAACTCGTCGGCAGCGTC</t>
+    <t>F3432-GGAACACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F3433-TTGGTCCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCCAGTTCGTCGGCAGCGTC</t>
+    <t>F3433-TTCGTTGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTTGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F3434-ATCCTAGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTAGCAGTCGTCGGCAGCGTC</t>
+    <t>F3434-AGAACATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F3435-TTGCATCGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCATCGACTCGTCGGCAGCGTC</t>
+    <t>F3435-AGACACTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACACTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F3436-GTCAGATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGATGACTCGTCGGCAGCGTC</t>
+    <t>F3436-TGAAGAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F3437-ACTCCTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTGTTCTCGTCGGCAGCGTC</t>
+    <t>F3437-TACGTCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F3438-ACAGAGCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGCTACTCGTCGGCAGCGTC</t>
+    <t>F3438-TCGTGAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGAACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F3439-CATCACGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCACGTAGTCGTCGGCAGCGTC</t>
+    <t>F3439-CGTCATGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCATGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F3440-CTTCACACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCACACCTTCGTCGGCAGCGTC</t>
+    <t>F3440-CGAGTACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F3441-CAAGCACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCACAACTCGTCGGCAGCGTC</t>
+    <t>F3441-TTCACCTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F3442-GTACAAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAAGGTTTCGTCGGCAGCGTC</t>
+    <t>F3442-GACGATGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGATGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F3443-GACTAGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGATGCTCGTCGGCAGCGTC</t>
+    <t>F3443-ACTTCCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F3444-AGTGCATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCATCCATCGTCGGCAGCGTC</t>
+    <t>F3444-TACCACAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCACAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F3445-TGATGACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGACATCTCGTCGGCAGCGTC</t>
+    <t>F3445-CTCTCTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCTAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F3446-GTGACCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGACCTTCATCGTCGGCAGCGTC</t>
+    <t>F3446-AAGCAGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3447-AAGCAACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAACGATTCGTCGGCAGCGTC</t>
+    <t>F3447-GGTTGTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3448-GTTCCAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCAAGGATCGTCGGCAGCGTC</t>
+    <t>F3448-TCAGTGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3449-CACACTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACACTGAAGTCGTCGGCAGCGTC</t>
+    <t>F3449-CGTTCTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCTTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3450-GGTGTACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTACACTTCGTCGGCAGCGTC</t>
+    <t>F3450-ACACCTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCTTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3451-AACAACTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACTCCTTCGTCGGCAGCGTC</t>
+    <t>F3451-GCTTCTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3452-TGCTTGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTGAACGTCGTCGGCAGCGTC</t>
+    <t>F3452-AGAGATGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGATGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3453-GTACGAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAAGTGTCGTCGGCAGCGTC</t>
+    <t>F3453-GAACACGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3454-ACTTCCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCAACCTCGTCGGCAGCGTC</t>
+    <t>F3454-TAGAACGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3455-CAGTAGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGAAGGTCGTCGGCAGCGTC</t>
+    <t>F3455-GTTCCATCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCATCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3456-CTCAACAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACAGTGTCGTCGGCAGCGTC</t>
+    <t>F3456-TAGGTAGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTAGTCCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
